--- a/data/new_force_study/1zone/OverAll.xlsx
+++ b/data/new_force_study/1zone/OverAll.xlsx
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K30"/>
+  <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" zoomScalePageLayoutView="149" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -868,519 +868,519 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="5">
         <f>B2/SUM($B2:$K2)</f>
         <v>0.90833333333333333</v>
       </c>
-      <c r="C13" s="5">
-        <f t="shared" ref="C13:K13" si="0">C2/SUM($B2:$K2)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C14" s="5">
+        <f t="shared" ref="C14:K14" si="0">C2/SUM($B2:$K2)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H14" s="5">
         <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5">
-        <f t="shared" ref="B14:K14" si="1">B3/SUM($B3:$K3)</f>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" ref="B15:K15" si="1">B3/SUM($B3:$K3)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="5">
         <f t="shared" si="1"/>
         <v>0.81666666666666665</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I15" s="5">
         <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="5">
         <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K15" s="5">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5">
-        <f t="shared" ref="B15:K15" si="2">B4/SUM($B4:$K4)</f>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" ref="B16:K16" si="2">B4/SUM($B4:$K4)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C16" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="5">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H16" s="5">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I16" s="5">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J16" s="5">
         <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K16" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5">
-        <f t="shared" ref="B16:K16" si="3">B5/SUM($B5:$K5)</f>
+      <c r="B17" s="5">
+        <f t="shared" ref="B17:K17" si="3">B5/SUM($B5:$K5)</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C17" s="5">
         <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <f t="shared" si="3"/>
         <v>0.8833333333333333</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G17" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="5">
         <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K17" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5">
-        <f t="shared" ref="B17:K17" si="4">B6/SUM($B6:$K6)</f>
+      <c r="B18" s="5">
+        <f t="shared" ref="B18:K18" si="4">B6/SUM($B6:$K6)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C18" s="5">
         <f t="shared" si="4"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
         <f t="shared" si="4"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <f t="shared" si="4"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H18" s="5">
         <f t="shared" si="4"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I18" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="5">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K18" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="5">
-        <f t="shared" ref="B18:K18" si="5">B7/SUM($B7:$K7)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B19" s="5">
+        <f t="shared" ref="B19:K19" si="5">B7/SUM($B7:$K7)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
         <f t="shared" si="5"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="5">
         <f t="shared" si="5"/>
         <v>5.8333333333333334E-2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G19" s="5">
         <f t="shared" si="5"/>
         <v>0.90833333333333333</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H19" s="5">
         <f t="shared" si="5"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I19" s="5">
         <f t="shared" si="5"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K19" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="5">
-        <f t="shared" ref="B19:K19" si="6">B8/SUM($B8:$K8)</f>
+      <c r="B20" s="5">
+        <f t="shared" ref="B20:K20" si="6">B8/SUM($B8:$K8)</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="5">
         <f t="shared" si="6"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <f t="shared" si="6"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <f t="shared" si="6"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H20" s="5">
         <f t="shared" si="6"/>
         <v>0.80833333333333335</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I20" s="5">
         <f t="shared" si="6"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="5">
         <f t="shared" si="6"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K20" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="5">
-        <f t="shared" ref="B20:K20" si="7">B9/SUM($B9:$K9)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B21" s="5">
+        <f t="shared" ref="B21:K21" si="7">B9/SUM($B9:$K9)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
         <f t="shared" si="7"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <f t="shared" si="7"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="5">
         <f t="shared" si="7"/>
         <v>5.8333333333333334E-2</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="5">
         <f t="shared" si="7"/>
         <v>0.89166666666666672</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="5">
         <f t="shared" si="7"/>
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="5">
-        <f t="shared" ref="B21:K21" si="8">B10/SUM($B10:$K10)</f>
+      <c r="B22" s="5">
+        <f t="shared" ref="B22:K22" si="8">B10/SUM($B10:$K10)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="5">
         <f t="shared" si="8"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="5">
         <f t="shared" si="8"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="5">
         <f t="shared" si="8"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H22" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="5">
         <f t="shared" si="8"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="8"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="5">
-        <f t="shared" ref="B22:K22" si="9">B11/SUM($B11:$K11)</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B23" s="5">
+        <f t="shared" ref="B23:K23" si="9">B11/SUM($B11:$K11)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
         <f t="shared" si="9"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <f t="shared" si="9"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F23" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G23" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H23" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I23" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <f t="shared" si="9"/>
         <v>9.166666666666666E-2</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K23" s="5">
         <f t="shared" si="9"/>
         <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3">
-        <f>AVERAGE(B13,C14,D15,E16,F17,G18,H19,I20,J21,K22)</f>
-        <v>0.84250000000000003</v>
-      </c>
-    </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C14,E16,G18,I20,K22)</f>
-        <v>0.87666666666666659</v>
+        <f>AVERAGE(B14,C15,D16,E17,F18,G19,H20,I21,J22,K23)</f>
+        <v>0.84250000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C15,E17,G19,I21,K23)</f>
+        <v>0.87666666666666659</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(B13,D15,F17,H19,J21)</f>
+      <c r="C31" s="3">
+        <f>AVERAGE(B14,D16,F18,H20,J22)</f>
         <v>0.80833333333333335</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:K11">
+  <conditionalFormatting sqref="B2:K12">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1390,7 +1390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:K22">
+  <conditionalFormatting sqref="B14:K23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1409,7 +1409,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1736,6 +1736,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1745,7 +1755,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2072,6 +2082,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2081,7 +2101,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2408,6 +2428,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2417,7 +2447,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2744,6 +2774,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2753,7 +2793,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3080,6 +3120,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3089,7 +3139,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3416,6 +3466,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3425,7 +3485,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3752,6 +3812,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3761,7 +3831,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4088,6 +4158,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4097,7 +4177,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4424,6 +4504,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4433,7 +4523,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4760,6 +4850,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4769,7 +4869,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5096,6 +5196,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5105,7 +5215,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5432,6 +5542,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/new_force_study/1zone/OverAll.xlsx
+++ b/data/new_force_study/1zone/OverAll.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" zoomScalePageLayoutView="149" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/data/new_force_study/1zone/OverAll.xlsx
+++ b/data/new_force_study/1zone/OverAll.xlsx
@@ -9,23 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SUM" sheetId="13" r:id="rId1"/>
-    <sheet name="kp" sheetId="1" r:id="rId2"/>
-    <sheet name="youlu" sheetId="2" r:id="rId3"/>
-    <sheet name="jesse" sheetId="3" r:id="rId4"/>
-    <sheet name="軒軒" sheetId="4" r:id="rId5"/>
-    <sheet name="deryan" sheetId="5" r:id="rId6"/>
-    <sheet name="麒安" sheetId="6" r:id="rId7"/>
-    <sheet name="蔡伶" sheetId="7" r:id="rId8"/>
-    <sheet name="婷蔚" sheetId="8" r:id="rId9"/>
-    <sheet name="kevin" sheetId="9" r:id="rId10"/>
-    <sheet name="steven" sheetId="10" r:id="rId11"/>
-    <sheet name="tony" sheetId="11" r:id="rId12"/>
-    <sheet name="田" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
+    <sheet name="kp" sheetId="1" r:id="rId3"/>
+    <sheet name="youlu" sheetId="2" r:id="rId4"/>
+    <sheet name="jesse" sheetId="3" r:id="rId5"/>
+    <sheet name="軒軒" sheetId="4" r:id="rId6"/>
+    <sheet name="deryan" sheetId="5" r:id="rId7"/>
+    <sheet name="麒安" sheetId="6" r:id="rId8"/>
+    <sheet name="蔡伶" sheetId="7" r:id="rId9"/>
+    <sheet name="婷蔚" sheetId="8" r:id="rId10"/>
+    <sheet name="kevin" sheetId="9" r:id="rId11"/>
+    <sheet name="steven" sheetId="10" r:id="rId12"/>
+    <sheet name="tony" sheetId="11" r:id="rId13"/>
+    <sheet name="田" sheetId="12" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$P$7:$AA$18</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,65 +40,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Force Tap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Swipe Left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Force Swipe Left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Swipe Right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Force Swipe Right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Swipe Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Force Swipe Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Swipe Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Force Swipe Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Tap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OverAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Force Gestures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Normal Gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. Tap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. Tap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Left</t>
+  </si>
+  <si>
+    <t>F.  Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Right</t>
+  </si>
+  <si>
+    <t>F.  Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Up</t>
+  </si>
+  <si>
+    <t>F.  Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Down</t>
+  </si>
+  <si>
+    <t>F.  Down</t>
+  </si>
+  <si>
+    <t>F. Right</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. Down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. Left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. Tap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. Left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. Right</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,16 +233,70 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18.5"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor theme="0" tint="-0.14996795556505021"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -142,11 +319,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyFont="0" applyBorder="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyFont="0" applyBorder="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -159,18 +488,2610 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Style 1" xfId="2"/>
+    <cellStyle name="Style 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14993743705557422"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14993743705557422"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFBFAFC"/>
+      <color rgb="FFFFE9F0"/>
+      <color rgb="FFFF7E79"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$8:$AC$18</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Tap</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F. Tap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Left</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F. Left</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Right</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F. Right</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Up</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F. Up</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Down</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F. Down</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$8:$AD$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>91.66666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.16666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.66666666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>84.66666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-2037233632"/>
+        <c:axId val="-2037230352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2037233632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2037230352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2037230352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2037233632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>528615</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>546100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>809400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1088108" y="5130107"/>
+          <a:ext cx="2463800" cy="280785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="PingFang HK" charset="-120"/>
+              <a:cs typeface="PingFang HK" charset="-120"/>
+            </a:rPr>
+            <a:t>Actual Class(%)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317362</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>20821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576013</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>248381</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6098291" y="1145083"/>
+          <a:ext cx="1910345" cy="227560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Predicted Class(%)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241226</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>606986</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>424816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Right Arrow 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5194226" y="1456056"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37169"/>
+            <a:gd name="adj2" fmla="val 49371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>240630</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>606390</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>424816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Striped Right Arrow 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6019130" y="1456056"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35087"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>290678</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>564998</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3582518" y="1518921"/>
+          <a:ext cx="274320" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241822</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607582</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>426721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4356622" y="1473201"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>240034</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605794</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>424816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Right Arrow 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6844034" y="1456056"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33514"/>
+            <a:gd name="adj2" fmla="val 49371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238842</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>604602</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>424816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Right Arrow 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="8493842" y="1456056"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33514"/>
+            <a:gd name="adj2" fmla="val 49371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>237650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>603410</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>424816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Right Arrow 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10143650" y="1456056"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33514"/>
+            <a:gd name="adj2" fmla="val 49371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239438</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>605198</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>424816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Striped Right Arrow 14"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="7668938" y="1456056"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35087"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238246</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>604006</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>424816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Striped Right Arrow 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9318746" y="1456056"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35087"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>237052</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>602812</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>424816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Striped Right Arrow 16"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="10968552" y="1456056"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35087"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>270609</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>544929</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>366022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Oval 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2739489" y="2103382"/>
+          <a:ext cx="274320" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224889</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590649</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>452976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2693769" y="2698336"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224889</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590649</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>448490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Right Arrow 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2693769" y="3293290"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37169"/>
+            <a:gd name="adj2" fmla="val 49371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224890</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>78244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>444004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Striped Right Arrow 20"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2693770" y="3888244"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35087"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224889</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590649</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>439518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Right Arrow 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2693769" y="4483198"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33514"/>
+            <a:gd name="adj2" fmla="val 49371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224890</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>435032</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Striped Right Arrow 22"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="2693770" y="5078152"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35087"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224889</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>64786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590649</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>430546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Right Arrow 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="2693769" y="5673106"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33514"/>
+            <a:gd name="adj2" fmla="val 49371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224889</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590649</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>426060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Striped Right Arrow 24"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2693769" y="6268060"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35087"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224889</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590649</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>421574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Right Arrow 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2693769" y="6863014"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33514"/>
+            <a:gd name="adj2" fmla="val 49371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224889</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590649</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>417086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Striped Right Arrow 26"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="2693769" y="7457966"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35087"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>528615</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>546100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>809400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1281148" y="4650047"/>
+          <a:ext cx="2067560" cy="280785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="PingFang HK" charset="-120"/>
+              <a:cs typeface="PingFang HK" charset="-120"/>
+            </a:rPr>
+            <a:t>Actual Class(%)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>317362</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>20821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>576013</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>248381</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6078082" y="1179061"/>
+          <a:ext cx="1904571" cy="227560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Predicted Class(%)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="50" name="Chart 49"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,22 +3357,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" zoomScalePageLayoutView="149" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="92" zoomScaleNormal="149" zoomScalePageLayoutView="149" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2">
         <f>SUM(kp!A1+youlu!A1+軒軒!A1+jesse!A1+deryan!A1+麒安!A1+蔡伶!A1+婷蔚!A1+kevin!A1+steven!A1+tony!A1+田!A1)</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <f>SUM(kp!B1+youlu!B1+軒軒!B1+jesse!B1+deryan!B1+麒安!B1+蔡伶!B1+婷蔚!B1+kevin!B1+steven!B1+tony!B1+田!B1)</f>
@@ -483,21 +3404,21 @@
       </c>
       <c r="J2">
         <f>SUM(kp!I1+youlu!I1+軒軒!I1+jesse!I1+deryan!I1+麒安!I1+蔡伶!I1+婷蔚!I1+kevin!I1+steven!I1+tony!I1+田!I1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <f>SUM(kp!J1+youlu!J1+軒軒!J1+jesse!J1+deryan!J1+麒安!J1+蔡伶!J1+婷蔚!J1+kevin!J1+steven!J1+tony!J1+田!J1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3">
         <f>SUM(kp!A2+youlu!A2+軒軒!A2+jesse!A2+deryan!A2+麒安!A2+蔡伶!A2+婷蔚!A2+kevin!A2+steven!A2+tony!A2+田!A2)</f>
         <v>3</v>
       </c>
       <c r="C3">
         <f>SUM(kp!B2+youlu!B2+軒軒!B2+jesse!B2+deryan!B2+麒安!B2+蔡伶!B2+婷蔚!B2+kevin!B2+steven!B2+tony!B2+田!B2)</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <f>SUM(kp!C2+youlu!C2+軒軒!C2+jesse!C2+deryan!C2+麒安!C2+蔡伶!C2+婷蔚!C2+kevin!C2+steven!C2+tony!C2+田!C2)</f>
@@ -517,7 +3438,7 @@
       </c>
       <c r="H3">
         <f>SUM(kp!G2+youlu!G2+軒軒!G2+jesse!G2+deryan!G2+麒安!G2+蔡伶!G2+婷蔚!G2+kevin!G2+steven!G2+tony!G2+田!G2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <f>SUM(kp!H2+youlu!H2+軒軒!H2+jesse!H2+deryan!H2+麒安!H2+蔡伶!H2+婷蔚!H2+kevin!H2+steven!H2+tony!H2+田!H2)</f>
@@ -529,10 +3450,10 @@
       </c>
       <c r="K3">
         <f>SUM(kp!J2+youlu!J2+軒軒!J2+jesse!J2+deryan!J2+麒安!J2+蔡伶!J2+婷蔚!J2+kevin!J2+steven!J2+tony!J2+田!J2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4">
         <f>SUM(kp!A3+youlu!A3+軒軒!A3+jesse!A3+deryan!A3+麒安!A3+蔡伶!A3+婷蔚!A3+kevin!A3+steven!A3+tony!A3+田!A3)</f>
         <v>8</v>
@@ -543,7 +3464,7 @@
       </c>
       <c r="D4">
         <f>SUM(kp!C3+youlu!C3+軒軒!C3+jesse!C3+deryan!C3+麒安!C3+蔡伶!C3+婷蔚!C3+kevin!C3+steven!C3+tony!C3+田!C3)</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <f>SUM(kp!D3+youlu!D3+軒軒!D3+jesse!D3+deryan!D3+麒安!D3+蔡伶!D3+婷蔚!D3+kevin!D3+steven!D3+tony!D3+田!D3)</f>
@@ -559,7 +3480,7 @@
       </c>
       <c r="H4">
         <f>SUM(kp!G3+youlu!G3+軒軒!G3+jesse!G3+deryan!G3+麒安!G3+蔡伶!G3+婷蔚!G3+kevin!G3+steven!G3+tony!G3+田!G3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <f>SUM(kp!H3+youlu!H3+軒軒!H3+jesse!H3+deryan!H3+麒安!H3+蔡伶!H3+婷蔚!H3+kevin!H3+steven!H3+tony!H3+田!H3)</f>
@@ -574,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5">
         <f>SUM(kp!A4+youlu!A4+軒軒!A4+jesse!A4+deryan!A4+麒安!A4+蔡伶!A4+婷蔚!A4+kevin!A4+steven!A4+tony!A4+田!A4)</f>
         <v>1</v>
@@ -585,11 +3506,11 @@
       </c>
       <c r="D5">
         <f>SUM(kp!C4+youlu!C4+軒軒!C4+jesse!C4+deryan!C4+麒安!C4+蔡伶!C4+婷蔚!C4+kevin!C4+steven!C4+tony!C4+田!C4)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <f>SUM(kp!D4+youlu!D4+軒軒!D4+jesse!D4+deryan!D4+麒安!D4+蔡伶!D4+婷蔚!D4+kevin!D4+steven!D4+tony!D4+田!D4)</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F5">
         <f>SUM(kp!E4+youlu!E4+軒軒!E4+jesse!E4+deryan!E4+麒安!E4+蔡伶!E4+婷蔚!E4+kevin!E4+steven!E4+tony!E4+田!E4)</f>
@@ -616,14 +3537,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6">
         <f>SUM(kp!A5+youlu!A5+軒軒!A5+jesse!A5+deryan!A5+麒安!A5+蔡伶!A5+婷蔚!A5+kevin!A5+steven!A5+tony!A5+田!A5)</f>
         <v>10</v>
       </c>
       <c r="C6">
         <f>SUM(kp!B5+youlu!B5+軒軒!B5+jesse!B5+deryan!B5+麒安!B5+蔡伶!B5+婷蔚!B5+kevin!B5+steven!B5+tony!B5+田!B5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>SUM(kp!C5+youlu!C5+軒軒!C5+jesse!C5+deryan!C5+麒安!C5+蔡伶!C5+婷蔚!C5+kevin!C5+steven!C5+tony!C5+田!C5)</f>
@@ -639,7 +3560,7 @@
       </c>
       <c r="G6">
         <f>SUM(kp!F5+youlu!F5+軒軒!F5+jesse!F5+deryan!F5+麒安!F5+蔡伶!F5+婷蔚!F5+kevin!F5+steven!F5+tony!F5+田!F5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <f>SUM(kp!G5+youlu!G5+軒軒!G5+jesse!G5+deryan!G5+麒安!G5+蔡伶!G5+婷蔚!G5+kevin!G5+steven!G5+tony!G5+田!G5)</f>
@@ -658,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7">
         <f>SUM(kp!A6+youlu!A6+軒軒!A6+jesse!A6+deryan!A6+麒安!A6+蔡伶!A6+婷蔚!A6+kevin!A6+steven!A6+tony!A6+田!A6)</f>
         <v>0</v>
@@ -677,11 +3598,11 @@
       </c>
       <c r="F7">
         <f>SUM(kp!E6+youlu!E6+軒軒!E6+jesse!E6+deryan!E6+麒安!E6+蔡伶!E6+婷蔚!E6+kevin!E6+steven!E6+tony!E6+田!E6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <f>SUM(kp!F6+youlu!F6+軒軒!F6+jesse!F6+deryan!F6+麒安!F6+蔡伶!F6+婷蔚!F6+kevin!F6+steven!F6+tony!F6+田!F6)</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H7">
         <f>SUM(kp!G6+youlu!G6+軒軒!G6+jesse!G6+deryan!G6+麒安!G6+蔡伶!G6+婷蔚!G6+kevin!G6+steven!G6+tony!G6+田!G6)</f>
@@ -700,10 +3621,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8">
         <f>SUM(kp!A7+youlu!A7+軒軒!A7+jesse!A7+deryan!A7+麒安!A7+蔡伶!A7+婷蔚!A7+kevin!A7+steven!A7+tony!A7+田!A7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <f>SUM(kp!B7+youlu!B7+軒軒!B7+jesse!B7+deryan!B7+麒安!B7+蔡伶!B7+婷蔚!B7+kevin!B7+steven!B7+tony!B7+田!B7)</f>
@@ -727,7 +3648,7 @@
       </c>
       <c r="H8">
         <f>SUM(kp!G7+youlu!G7+軒軒!G7+jesse!G7+deryan!G7+麒安!G7+蔡伶!G7+婷蔚!G7+kevin!G7+steven!G7+tony!G7+田!G7)</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8">
         <f>SUM(kp!H7+youlu!H7+軒軒!H7+jesse!H7+deryan!H7+麒安!H7+蔡伶!H7+婷蔚!H7+kevin!H7+steven!H7+tony!H7+田!H7)</f>
@@ -742,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9">
         <f>SUM(kp!A8+youlu!A8+軒軒!A8+jesse!A8+deryan!A8+麒安!A8+蔡伶!A8+婷蔚!A8+kevin!A8+steven!A8+tony!A8+田!A8)</f>
         <v>0</v>
@@ -784,10 +3705,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10">
         <f>SUM(kp!A9+youlu!A9+軒軒!A9+jesse!A9+deryan!A9+麒安!A9+蔡伶!A9+婷蔚!A9+kevin!A9+steven!A9+tony!A9+田!A9)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <f>SUM(kp!B9+youlu!B9+軒軒!B9+jesse!B9+deryan!B9+麒安!B9+蔡伶!B9+婷蔚!B9+kevin!B9+steven!B9+tony!B9+田!B9)</f>
@@ -795,7 +3716,7 @@
       </c>
       <c r="D10">
         <f>SUM(kp!C9+youlu!C9+軒軒!C9+jesse!C9+deryan!C9+麒安!C9+蔡伶!C9+婷蔚!C9+kevin!C9+steven!C9+tony!C9+田!C9)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <f>SUM(kp!D9+youlu!D9+軒軒!D9+jesse!D9+deryan!D9+麒安!D9+蔡伶!D9+婷蔚!D9+kevin!D9+steven!D9+tony!D9+田!D9)</f>
@@ -803,7 +3724,7 @@
       </c>
       <c r="F10">
         <f>SUM(kp!E9+youlu!E9+軒軒!E9+jesse!E9+deryan!E9+麒安!E9+蔡伶!E9+婷蔚!E9+kevin!E9+steven!E9+tony!E9+田!E9)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <f>SUM(kp!F9+youlu!F9+軒軒!F9+jesse!F9+deryan!F9+麒安!F9+蔡伶!F9+婷蔚!F9+kevin!F9+steven!F9+tony!F9+田!F9)</f>
@@ -819,14 +3740,14 @@
       </c>
       <c r="J10">
         <f>SUM(kp!I9+youlu!I9+軒軒!I9+jesse!I9+deryan!I9+麒安!I9+蔡伶!I9+婷蔚!I9+kevin!I9+steven!I9+tony!I9+田!I9)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <f>SUM(kp!J9+youlu!J9+軒軒!J9+jesse!J9+deryan!J9+麒安!J9+蔡伶!J9+婷蔚!J9+kevin!J9+steven!J9+tony!J9+田!J9)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11">
         <f>SUM(kp!A10+youlu!A10+軒軒!A10+jesse!A10+deryan!A10+麒安!A10+蔡伶!A10+婷蔚!A10+kevin!A10+steven!A10+tony!A10+田!A10)</f>
         <v>0</v>
@@ -861,14 +3782,14 @@
       </c>
       <c r="J11">
         <f>SUM(kp!I10+youlu!I10+軒軒!I10+jesse!I10+deryan!I10+麒安!I10+蔡伶!I10+婷蔚!I10+kevin!I10+steven!I10+tony!I10+田!I10)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <f>SUM(kp!J10+youlu!J10+軒軒!J10+jesse!J10+deryan!J10+麒安!J10+蔡伶!J10+婷蔚!J10+kevin!J10+steven!J10+tony!J10+田!J10)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
         <v>9</v>
@@ -900,14 +3821,17 @@
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="5">
         <f>B2/SUM($B2:$K2)</f>
-        <v>0.90833333333333333</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" ref="C14:K14" si="0">C2/SUM($B2:$K2)</f>
@@ -939,14 +3863,18 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14" s="22">
+        <f>STDEV(kp!K1,youlu!K1,軒軒!K1,jesse!K1,deryan!K1,麒安!K1,蔡伶!K1,婷蔚!K1,kevin!K1,steven!K1,tony!K1,田!K1)</f>
+        <v>0.10298573010888844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -956,7 +3884,7 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="1"/>
-        <v>0.81666666666666665</v>
+        <v>0.8</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
@@ -976,7 +3904,7 @@
       </c>
       <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="1"/>
@@ -988,10 +3916,14 @@
       </c>
       <c r="K15" s="5">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L15" s="22">
+        <f>STDEV(kp!K2,youlu!K2,軒軒!K2,jesse!K2,deryan!K2,麒安!K2,蔡伶!K2,婷蔚!K2,kevin!K2,steven!K2,tony!K2,田!K2)</f>
+        <v>0.12060453783110785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +3937,7 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="2"/>
@@ -1021,7 +3953,7 @@
       </c>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
-        <v>3.3333333333333333E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="2"/>
@@ -1035,8 +3967,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16" s="22">
+        <f>STDEV(kp!K3,youlu!K3,軒軒!K3,jesse!K3,deryan!K3,麒安!K3,蔡伶!K3,婷蔚!K3,kevin!K3,steven!K3,tony!K3,田!K3)</f>
+        <v>0.13113721705515169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1050,11 +3986,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="3"/>
-        <v>0.8833333333333333</v>
+        <v>0.89166666666666672</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="3"/>
@@ -1080,8 +4016,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17" s="22">
+        <f>STDEV(kp!K4,youlu!K4,軒軒!K4,jesse!K4,deryan!K4,麒安!K4,蔡伶!K4,婷蔚!K4,kevin!K4,steven!K4,tony!K4,田!K4)</f>
+        <v>7.9296146109875898E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +4031,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="4"/>
-        <v>8.3333333333333332E-3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="4"/>
@@ -1107,7 +4047,7 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" si="4"/>
-        <v>3.3333333333333333E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="4"/>
@@ -1125,8 +4065,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18" s="22">
+        <f>STDEV(kp!K5,youlu!K5,軒軒!K5,jesse!K5,deryan!K5,麒安!K5,蔡伶!K5,婷蔚!K5,kevin!K5,steven!K5,tony!K5,田!K5)</f>
+        <v>0.15666989036012871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1148,11 +4092,11 @@
       </c>
       <c r="F19" s="5">
         <f t="shared" si="5"/>
-        <v>5.8333333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="5"/>
-        <v>0.90833333333333333</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="5"/>
@@ -1170,14 +4114,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19" s="22">
+        <f>STDEV(kp!K6,youlu!K6,軒軒!K6,jesse!K6,deryan!K6,麒安!K6,蔡伶!K6,婷蔚!K6,kevin!K6,steven!K6,tony!K6,田!K6)</f>
+        <v>8.3484710993672176E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" ref="B20:K20" si="6">B8/SUM($B8:$K8)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="6"/>
@@ -1201,7 +4149,7 @@
       </c>
       <c r="H20" s="5">
         <f t="shared" si="6"/>
-        <v>0.80833333333333335</v>
+        <v>0.8</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="6"/>
@@ -1215,8 +4163,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20" s="22">
+        <f>STDEV(kp!K7,youlu!K7,軒軒!K7,jesse!K7,deryan!K7,麒安!K7,蔡伶!K7,婷蔚!K7,kevin!K7,steven!K7,tony!K7,田!K7)</f>
+        <v>0.12792042981336743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1260,14 +4212,18 @@
         <f t="shared" si="7"/>
         <v>8.3333333333333332E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21" s="22">
+        <f>STDEV(kp!K8,youlu!K8,軒軒!K8,jesse!K8,deryan!K8,麒安!K8,蔡伶!K8,婷蔚!K8,kevin!K8,steven!K8,tony!K8,田!K8)</f>
+        <v>9.9620491989562271E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" ref="B22:K22" si="8">B10/SUM($B10:$K10)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
@@ -1275,7 +4231,7 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" si="8"/>
-        <v>3.3333333333333333E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="8"/>
@@ -1283,7 +4239,7 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="8"/>
-        <v>0.05</v>
+        <v>5.8333333333333334E-2</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="8"/>
@@ -1299,14 +4255,18 @@
       </c>
       <c r="J22" s="5">
         <f t="shared" si="8"/>
-        <v>0.77500000000000002</v>
+        <v>0.81666666666666665</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" si="8"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L22" s="22">
+        <f>STDEV(kp!K9,youlu!K9,軒軒!K9,jesse!K9,deryan!K9,麒安!K9,蔡伶!K9,婷蔚!K9,kevin!K9,steven!K9,tony!K9,田!K9)</f>
+        <v>8.3484710993672218E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1344,44 +4304,54 @@
       </c>
       <c r="J23" s="5">
         <f t="shared" si="9"/>
-        <v>9.166666666666666E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K23" s="5">
         <f t="shared" si="9"/>
-        <v>0.8833333333333333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.89166666666666672</v>
+      </c>
+      <c r="L23" s="22">
+        <f>STDEV(kp!K10,youlu!K10,軒軒!K10,jesse!K10,deryan!K10,麒安!K10,蔡伶!K10,婷蔚!K10,kevin!K10,steven!K10,tony!K10,田!K10)</f>
+        <v>7.9296146109875884E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L24" s="24">
+        <f>AVERAGE(L14:L23)</f>
+        <v>0.10645000113653025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(B14,C15,D16,E17,F18,G19,H20,I21,J22,K23)</f>
-        <v>0.84250000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.84666666666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(C15,E17,G19,I21,K23)</f>
-        <v>0.87666666666666659</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.8783333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="3">
         <f>AVERAGE(B14,D16,F18,H20,J22)</f>
-        <v>0.80833333333333335</v>
+        <v>0.81499999999999984</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:K12">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1390,31 +4360,53 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:K23">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
+  <conditionalFormatting sqref="B14:L23">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C488E1EE-74C1-9F49-9FF4-3A7DB2716CDE}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C488E1EE-74C1-9F49-9FF4-3A7DB2716CDE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B14:L23</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>9</v>
       </c>
@@ -1422,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -1440,242 +4432,274 @@
         <v>0</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>9</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1701,8 +4725,12 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1728,14 +4756,18 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1752,29 +4784,29 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="K1" sqref="K1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -1786,24 +4818,28 @@
         <v>0</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1818,13 +4854,17 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1835,19 +4875,19 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1855,8 +4895,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1864,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1879,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1887,10 +4931,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1902,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1914,13 +4962,17 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1937,10 +4989,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1951,10 +5003,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1966,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1975,21 +5031,25 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2004,56 +5064,64 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2077,11 +5145,15 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2098,29 +5170,29 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+      <selection activeCell="K1" sqref="K1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -2137,8 +5209,12 @@
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2149,28 +5225,32 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2178,31 +5258,35 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2210,10 +5294,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2233,10 +5317,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2248,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2265,8 +5353,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2297,19 +5389,23 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2318,19 +5414,23 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2350,10 +5450,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2361,22 +5461,26 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2393,13 +5497,17 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2420,14 +5528,18 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2444,15 +5556,401 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K1" sqref="K1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>7</v>
       </c>
@@ -2483,8 +5981,12 @@
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2515,8 +6017,12 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2547,8 +6053,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2579,8 +6089,12 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2611,8 +6125,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2643,8 +6161,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2675,8 +6197,12 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2707,8 +6233,12 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2739,8 +6269,12 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2771,9 +6305,13 @@
       <c r="J10">
         <v>9</v>
       </c>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>0.9</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2790,506 +6328,1317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D7:AR18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AC17" activeCellId="4" sqref="AC9:AQ9 AC11:AQ11 AC13:AQ13 AC15:AQ15 AC17:AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="14" width="10.83203125" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>10</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
+    <row r="7" spans="4:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="4:44" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="6"/>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="16">
+        <f>R9</f>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="AO8" s="23">
+        <v>0.10298573010888799</v>
+      </c>
+      <c r="AP8">
+        <f>AO8*100</f>
+        <v>10.298573010888799</v>
+      </c>
+      <c r="AQ8" s="20">
+        <f>AP8</f>
+        <v>10.298573010888799</v>
+      </c>
+      <c r="AR8" s="20"/>
+    </row>
+    <row r="9" spans="4:44" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="16">
+        <f>E9*100</f>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="S9" s="16">
+        <f t="shared" ref="S9:AA9" si="0">F9*100</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="U9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="W9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Y9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AA9" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="20">
+        <f>S10</f>
+        <v>80</v>
+      </c>
+      <c r="AO9" s="23">
+        <v>0.12060453783110785</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" ref="AP9:AP18" si="1">AO9*100</f>
+        <v>12.060453783110784</v>
+      </c>
+      <c r="AQ9" s="20">
+        <f t="shared" ref="AQ9:AQ18" si="2">AP9</f>
+        <v>12.060453783110784</v>
+      </c>
+      <c r="AR9" s="20"/>
+    </row>
+    <row r="10" spans="4:44" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L10" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="N10" s="5">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" ref="R10:R18" si="3">E10*100</f>
+        <v>2.5</v>
+      </c>
+      <c r="S10" s="16">
+        <f t="shared" ref="S10:S18" si="4">F10*100</f>
+        <v>80</v>
+      </c>
+      <c r="T10" s="16">
+        <f t="shared" ref="T10:T18" si="5">G10*100</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" ref="U10:U18" si="6">H10*100</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="V10" s="16">
+        <f t="shared" ref="V10:V18" si="7">I10*100</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="W10" s="16">
+        <f t="shared" ref="W10:W18" si="8">J10*100</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" ref="X10:X18" si="9">K10*100</f>
+        <v>5</v>
+      </c>
+      <c r="Y10" s="16">
+        <f t="shared" ref="Y10:Y18" si="10">L10*100</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Z10" s="16">
+        <f t="shared" ref="Z10:Z18" si="11">M10*100</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AA10" s="17">
+        <f t="shared" ref="AA10:AA18" si="12">N10*100</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD10" s="20">
+        <f>T11</f>
+        <v>79.166666666666657</v>
+      </c>
+      <c r="AO10" s="23">
+        <v>0.13113721705515169</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="1"/>
+        <v>13.113721705515168</v>
+      </c>
+      <c r="AQ10" s="20">
+        <f t="shared" si="2"/>
+        <v>13.113721705515168</v>
+      </c>
+      <c r="AR10" s="20"/>
+    </row>
+    <row r="11" spans="4:44" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="J11" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="16">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="S11" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="16">
+        <f t="shared" si="5"/>
+        <v>79.166666666666657</v>
+      </c>
+      <c r="U11" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X11" s="16">
+        <f t="shared" si="9"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="Y11" s="16">
+        <f t="shared" si="10"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Z11" s="16">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA11" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD11" s="20">
+        <f>U12</f>
+        <v>89.166666666666671</v>
+      </c>
+      <c r="AO11" s="23">
+        <v>7.9296146109875898E-2</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="1"/>
+        <v>7.9296146109875902</v>
+      </c>
+      <c r="AQ11" s="20">
+        <f t="shared" si="2"/>
+        <v>7.9296146109875902</v>
+      </c>
+      <c r="AR11" s="20"/>
+    </row>
+    <row r="12" spans="4:44" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.89166666666666672</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="16">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="6"/>
+        <v>89.166666666666671</v>
+      </c>
+      <c r="V12" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16">
+        <f t="shared" si="10"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Z12" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" s="20">
+        <f>V13</f>
+        <v>75</v>
+      </c>
+      <c r="AO12" s="23">
+        <v>0.15666989036012871</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="1"/>
+        <v>15.666989036012872</v>
+      </c>
+      <c r="AQ12" s="20">
+        <f t="shared" si="2"/>
+        <v>15.666989036012872</v>
+      </c>
+      <c r="AR12" s="20"/>
+    </row>
+    <row r="13" spans="4:44" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="16">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="S13" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="5"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="X13" s="16">
+        <f t="shared" si="9"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="Y13" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="16">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AA13" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD13" s="20">
+        <f>W14</f>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="AO13" s="23">
+        <v>8.3484710993672176E-2</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="1"/>
+        <v>8.3484710993672184</v>
+      </c>
+      <c r="AQ13" s="20">
+        <f t="shared" si="2"/>
+        <v>8.3484710993672184</v>
+      </c>
+      <c r="AR13" s="20"/>
+    </row>
+    <row r="14" spans="4:44" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K14" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="8"/>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="9"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Y14" s="16">
+        <f t="shared" si="10"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD14" s="20">
+        <f>X15</f>
+        <v>80</v>
+      </c>
+      <c r="AO14" s="23">
+        <v>0.12792042981336743</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="1"/>
+        <v>12.792042981336744</v>
+      </c>
+      <c r="AQ14" s="20">
+        <f t="shared" si="2"/>
+        <v>12.792042981336744</v>
+      </c>
+      <c r="AR14" s="20"/>
+    </row>
+    <row r="15" spans="4:44" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="16">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="S15" s="16">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="T15" s="16">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="U15" s="16">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V15" s="16">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="16">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="Y15" s="16">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z15" s="16">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AA15" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD15" s="20">
+        <f>Y16</f>
+        <v>89.166666666666671</v>
+      </c>
+      <c r="AO15" s="23">
+        <v>9.9620491989562271E-2</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="1"/>
+        <v>9.9620491989562279</v>
+      </c>
+      <c r="AQ15" s="20">
+        <f t="shared" si="2"/>
+        <v>9.9620491989562279</v>
+      </c>
+      <c r="AR15" s="20"/>
+    </row>
+    <row r="16" spans="4:44" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.89166666666666672</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="16">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="T16" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="16">
+        <f t="shared" si="6"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="V16" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="16">
+        <f t="shared" si="9"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="Y16" s="16">
+        <f t="shared" si="10"/>
+        <v>89.166666666666671</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="17">
+        <f t="shared" si="12"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" s="20">
+        <f>Z17</f>
+        <v>81.666666666666671</v>
+      </c>
+      <c r="AO16" s="23">
+        <v>8.3484710993672218E-2</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="1"/>
+        <v>8.348471099367222</v>
+      </c>
+      <c r="AQ16" s="20">
+        <f t="shared" si="2"/>
+        <v>8.348471099367222</v>
+      </c>
+      <c r="AR16" s="20"/>
+    </row>
+    <row r="17" spans="4:44" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="S17" s="16">
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="U17" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <f t="shared" si="7"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="W17" s="16">
+        <f>J17*100</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="16">
+        <f t="shared" si="11"/>
+        <v>81.666666666666671</v>
+      </c>
+      <c r="AA17" s="17">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD17" s="20">
+        <f>AA18</f>
+        <v>89.166666666666671</v>
+      </c>
+      <c r="AO17" s="23">
+        <v>7.9296146109875884E-2</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="1"/>
+        <v>7.9296146109875885</v>
+      </c>
+      <c r="AQ17" s="20">
+        <f t="shared" si="2"/>
+        <v>7.9296146109875885</v>
+      </c>
+      <c r="AR17" s="20"/>
+    </row>
+    <row r="18" spans="4:44" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.89166666666666672</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="18">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="T18" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="18">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V18" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="18">
+        <f t="shared" si="11"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="AA18" s="19">
+        <f t="shared" si="12"/>
+        <v>89.166666666666671</v>
+      </c>
+      <c r="AC18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD18">
+        <f>AVERAGE(AD8:AD17)</f>
+        <v>84.666666666666657</v>
+      </c>
+      <c r="AO18">
+        <v>0.10645000113653025</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="1"/>
+        <v>10.645000113653024</v>
+      </c>
+      <c r="AQ18" s="20">
+        <f t="shared" si="2"/>
+        <v>10.645000113653024</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:J10">
-    <cfRule type="colorScale" priority="1">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="R9:AA18">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFFBFAFC"/>
+        <color theme="1" tint="0.499984740745262"/>
       </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:N18">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EFDB303B-4C9E-4C4A-85C7-F2166AE682FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFBFAFC"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EFDB303B-4C9E-4C4A-85C7-F2166AE682FE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E9:N18</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3298,13 +7647,17 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3318,10 +7671,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3335,8 +7688,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3350,13 +7707,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3367,8 +7724,12 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3399,10 +7760,14 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3414,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3426,13 +7791,17 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3458,14 +7827,18 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -3482,15 +7855,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="K1" sqref="K1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>9</v>
       </c>
@@ -3521,13 +7894,17 @@
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3542,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3553,16 +7930,20 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3585,8 +7966,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3594,10 +7979,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3617,22 +8002,26 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3644,13 +8033,17 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3681,8 +8074,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3696,13 +8093,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3713,8 +8110,12 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3745,22 +8146,26 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3772,13 +8177,17 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3804,14 +8213,18 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -3828,15 +8241,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="K1" sqref="K1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>10</v>
       </c>
@@ -3867,13 +8280,17 @@
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3897,10 +8314,14 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3911,7 +8332,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3920,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3931,8 +8352,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3940,46 +8365,50 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -3990,13 +8419,17 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4010,10 +8443,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4027,13 +8460,17 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4048,10 +8485,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4059,8 +8496,12 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4080,10 +8521,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4091,10 +8532,14 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4106,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4118,13 +8563,17 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4150,14 +8599,18 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4174,15 +8627,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="K1" sqref="K1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>10</v>
       </c>
@@ -4213,13 +8666,17 @@
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4234,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4243,21 +8700,25 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4272,21 +8733,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -4309,10 +8774,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4324,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4336,13 +8805,17 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4356,10 +8829,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4373,22 +8846,26 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4397,7 +8874,7 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4405,19 +8882,23 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4426,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -4437,22 +8918,26 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4467,10 +8952,14 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4501,9 +8990,13 @@
       <c r="J10">
         <v>10</v>
       </c>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4520,15 +9013,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="K1" sqref="K1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>10</v>
       </c>
@@ -4559,8 +9052,12 @@
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4571,42 +9068,46 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4618,13 +9119,17 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4655,8 +9160,12 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4664,16 +9173,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4682,13 +9191,17 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4702,10 +9215,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4719,8 +9232,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4728,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4746,24 +9263,28 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4775,81 +9296,93 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4866,336 +9399,376 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="K1" sqref="K1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>8</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="J10">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -5212,35 +9785,35 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="K1" sqref="K1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
         <v>0</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -5251,13 +9824,17 @@
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1">
+        <f>A1/SUM(A1:J1)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5278,13 +9855,17 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2">
+        <f>B2/SUM(A2:J2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5292,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5304,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5315,8 +9896,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <f>C3/SUM(A3:J3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5324,10 +9909,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5347,10 +9932,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <f>D4/SUM(A4:J4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5365,22 +9954,26 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <f>E5/SUM(A5:J5)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5394,16 +9987,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5411,10 +10004,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <f>F6/SUM(A6:J6)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5432,19 +10029,23 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <f>G7/SUM(A7:J7)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5455,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5464,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>9</v>
@@ -5475,13 +10076,17 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8">
+        <f>H8/SUM(A8:J8)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5493,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -5507,8 +10112,12 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <f>I9/SUM(A9:J9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5519,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5534,14 +10143,18 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <f>J10/SUM(A10:J10)</f>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
